--- a/Scrapy/weibohot/weibohot30102020.xlsx
+++ b/Scrapy/weibohot/weibohot30102020.xlsx
@@ -46,6 +46,14 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="30-10-2020-18-40-02" sheetId="37" state="visible" r:id="rId37"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="30-10-2020-19-00-01" sheetId="38" state="visible" r:id="rId38"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="30-10-2020-19-20-02" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="30-10-2020-19-40-01" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="30-10-2020-20-00-02" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="30-10-2020-20-20-02" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="30-10-2020-20-40-01" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="30-10-2020-21-00-02" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="30-10-2020-21-20-02" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="30-10-2020-21-40-01" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="30-10-2020-22-00-02" sheetId="47" state="visible" r:id="rId47"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -25531,6 +25539,6054 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>热搜</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>热度</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>钟南山称中国暴发第二波疫情可能性很低</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3469181</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>江苏医生被武汉七旬康复患者公主抱</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2321326</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>邓伦李沁工作室头像</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1393191</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>周震南</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1266298</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>宋小女说希望张玉环照顾好自己</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1027046</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>华为Mate40</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>866578</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>教育局回应一幼儿园让孩子学敬酒</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>795713</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>美国逮捕相关人员不是中方执法人员</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>795409</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>白敬亭让王嘉尔不穿衣服</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>795184</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>张玉环愿奖5万追查当年案件真凶</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>732923</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>突然明白怎么织毛衣了</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>651118</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>务农时用毛巾缠住脖子的原理</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>535429</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>大量法国人赶在封城前离开巴黎</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>405151</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>华为发布会</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>386167</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>抚顺受虐女童监护人已变更为父亲</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>350348</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>关晓彤黄景瑜官鸿翻车料理</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>349918</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>韩美娟参加创4面试</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>347768</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>华为Mate40价格</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>345770</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>林允万圣节鬼新娘妆</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>345046</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>哥哥回应张玉环获496万国赔</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>343069</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>鬼屋有多吓人</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>340419</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>我嗑的cp就像柿子</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>338921</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>布达拉宫泼甜墙</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>338299</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>边伯贤 我熟人是哪位</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>336751</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>王一博泥泞打戏</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>334845</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>詹姆斯纪念NBA首秀17周年</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>305119</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>不输配音演员的原声</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>303833</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>外交部回应蓬佩奥访问亚洲一再抹黑中国</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>283098</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>辽宁舰和山东舰同时执行任务</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>282590</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>于谦喜欢烫头的原因</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>264522</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>意大利议员坚持把口罩戴鼻子上</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>252568</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>每107秒就有一名美国人死于新冠肺炎</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>240844</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>中美彻底脱钩不现实也没好处</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>234245</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>美香</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>231998</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>甘肃坠入农家院大巴车公司回应事故</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>226596</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>万圣节妆容</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>220377</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>数码宝贝太好哭了</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>218712</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>盲人女孩回应报考陕师大遭拒</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>202374</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>英雄联盟手游现状</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>199960</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>让孩子早点寄宿有好处吗</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>191054</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>6岁女童受虐被告人将被从重从快严惩</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>184791</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>月亮好圆</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>182442</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>宋旻浩新歌MV</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>180636</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>那些被经纪团队耽误了的艺人</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>180084</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>浙江湖州诞生4只小金虎</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>166311</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>杨幂港风江景大片</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>164830</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>男生藏快递箱求婚被他人错拆</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>164548</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>陕西发现2600年前祭祀遗址</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>143676</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>热搜</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>热度</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>钟南山称中国暴发第二波疫情可能性很低</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3175280</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>江苏医生被武汉七旬康复患者公主抱</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1615374</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>邓伦李沁工作室头像</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1322730</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>周震南</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1281697</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>宋小女说希望张玉环照顾好自己</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1000404</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>华为Mate40</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>694541</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>教育局回应一幼儿园让孩子学敬酒</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>622627</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>美国逮捕相关人员不是中方执法人员</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>621284</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>白敬亭让王嘉尔不穿衣服</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>621240</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>张玉环愿奖5万追查当年案件真凶</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>621073</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>突然明白怎么织毛衣了</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>572823</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>务农时用毛巾缠住脖子的原理</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>451216</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>抚顺受虐女童监护人已变更为父亲</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>426557</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>大量法国人赶在封城前离开巴黎</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>371725</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>华为发布会</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>371664</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>关晓彤黄景瑜官鸿翻车料理</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>371216</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>韩美娟参加创4面试</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>371037</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>华为Mate40价格</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>370141</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>林允万圣节鬼新娘妆</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>369870</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>物理老师用烧杯演奏小星星</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>369543</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>鬼屋有多吓人</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>368967</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>哥哥回应张玉环获496万国赔</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>368532</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>布达拉宫泼甜墙</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>349315</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>边伯贤 我熟人是哪位</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>341048</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>杨幂港风江景大片</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>336401</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>我嗑的cp就像柿子</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>329321</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>詹姆斯纪念NBA首秀17周年</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>317124</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>外交部回应蓬佩奥访问亚洲一再抹黑中国</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>308964</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>王一博泥泞打戏</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>306988</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>假如顾里林萧去吃重庆小面</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>279958</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>不输配音演员的原声</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>277303</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>意大利议员坚持把口罩戴鼻子上</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>246382</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>中美彻底脱钩不现实也没好处</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>245485</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>于谦喜欢烫头的原因</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>244956</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>许魏洲把箱子坐裂了</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>240188</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>辽宁舰和山东舰同时执行任务</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>234597</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>万圣节妆容</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>233300</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>每107秒就有一名美国人死于新冠肺炎</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>214736</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>陕西发现2600年前祭祀遗址</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>208517</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>美香</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>203910</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>数码宝贝太好哭了</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>203812</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>月亮好圆</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>198440</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>华为手机钱包支持数字人民币</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>196745</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>6岁女童受虐被告人将被从重从快严惩</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>195972</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>张文宏解读新疆疫情</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>187968</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>江苏卫视一千零一夜晚会</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>183823</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>英雄联盟手游现状</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>181535</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>让孩子早点寄宿有好处吗</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>167816</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>热搜</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>热度</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>钟南山称中国暴发第二波疫情可能性很低</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2924829</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>江苏医生被武汉七旬康复患者公主抱</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>907628</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>邓伦李沁工作室头像</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>876608</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>周震南</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>832267</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>华为Mate40</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>648171</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>突然明白怎么织毛衣了</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>647086</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>教育局回应一幼儿园让孩子学敬酒</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>528330</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>美国逮捕相关人员不是中方执法人员</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>459077</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>白敬亭让王嘉尔不穿衣服</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>454571</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>务农时用毛巾缠住脖子的原理</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>442847</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>宋小女说希望张玉环照顾好自己</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>438036</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>抚顺受虐女童监护人已变更为父亲</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>392194</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>江苏卫视一千零一夜晚会</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>377922</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>华为发布会</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>357141</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>大量法国人赶在封城前离开巴黎</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>346102</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>关晓彤黄景瑜官鸿翻车料理</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>345607</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>华为Mate40价格</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>342518</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>布达拉宫泼甜墙</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>340666</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>假如顾里林萧去吃重庆小面</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>339531</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>我嗑的cp就像柿子</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>338330</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>韩美娟参加创4面试</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>338227</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>许魏洲把箱子坐裂了</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>337956</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>6岁女童受虐被告人将被从重从快严惩</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>337748</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>杨幂港风江景大片</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>337667</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>张玉环愿奖5万追查当年案件真凶</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>337506</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>物理老师用烧杯演奏小星星</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>337182</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>詹姆斯纪念NBA首秀17周年</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>337020</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>外交部回应蓬佩奥访问亚洲一再抹黑中国</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>336841</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>林允万圣节鬼新娘妆</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>336695</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>鬼屋有多吓人</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>336560</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>王一博泥泞打戏</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>267333</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>不输配音演员的原声</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>228973</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>中美彻底脱钩不现实也没好处</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>226888</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>边伯贤 我熟人是哪位</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>226643</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>陕西发现2600年前祭祀遗址</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>219263</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>万圣节妆容</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>216989</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>华为手机钱包支持数字人民币</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>213992</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>哥哥回应张玉环获496万国赔</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>211817</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>于谦喜欢烫头的原因</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>203477</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>张文宏解读新疆疫情</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>202513</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>世界50%新冠病例由无症状感染者传染</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>199264</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>中国新说唱总决赛</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>192080</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>林俊杰线上演唱会</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>189074</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>意大利议员坚持把口罩戴鼻子上</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>188100</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>周杰伦投资KTV被告300首歌侵权</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>187351</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>辽宁舰和山东舰同时执行任务</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>186674</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>半泽直树被上司甩锅</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>180915</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>数码宝贝太好哭了</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>180320</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>热搜</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>热度</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>钟南山称中国暴发第二波疫情可能性很低</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2802146</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>江苏医生被武汉七旬康复患者公主抱</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1415014</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>江苏卫视一千零一夜晚会</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1177362</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>周震南</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1165944</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>邓伦李沁工作室头像</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1087402</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>世界50%新冠病例由无症状感染者传染</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>678113</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>华为Mate40</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>648779</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>美国逮捕相关人员不是中方执法人员</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>544553</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>突然明白怎么织毛衣了</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>515314</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>白敬亭让王嘉尔不穿衣服</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>505397</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>教育局回应一幼儿园让孩子学敬酒</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>450802</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>务农时用毛巾缠住脖子的原理</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>421563</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>物理老师用烧杯演奏小星星</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>419814</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>宋小女说希望张玉环照顾好自己</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>399345</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>华为发布会</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>359051</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>假如顾里林萧去吃重庆小面</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>358845</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>周杰伦投资KTV被告300首歌侵权</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>350506</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>华为Mate40价格</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>346063</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>关晓彤黄景瑜官鸿翻车料理</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>340280</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>抚顺受虐女童监护人已变更为父亲</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>335344</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>韩美娟参加创4面试</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>333916</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>鬼屋有多吓人</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>324331</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>6岁女童受虐被告人将被从重从快严惩</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>296655</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>杨幂港风江景大片</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>289493</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>我嗑的cp就像柿子</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>288941</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>中国新说唱总决赛</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>274399</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>詹姆斯纪念NBA首秀17周年</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>264408</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>外交部回应蓬佩奥访问亚洲一再抹黑中国</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>263199</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>林允万圣节鬼新娘妆</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>262716</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>大量法国人赶在封城前离开巴黎</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>262037</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>王一博泥泞打戏</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>245670</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>布达拉宫泼甜墙</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>214863</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>中美彻底脱钩不现实也没好处</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>210395</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>万圣节妆容</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>210150</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>不输配音演员的原声</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>203973</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>半泽直树被上司甩锅</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>203247</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>华为手机钱包支持数字人民币</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>202840</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>陕西发现2600年前祭祀遗址</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>195553</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>李佳琦直播</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>195279</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>林俊杰线上演唱会</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>193856</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>边伯贤 我熟人是哪位</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>182451</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>意大利议员坚持把口罩戴鼻子上</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>178743</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>薇娅直播间</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>174860</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>天官赐福灯光秀</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>173214</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>TES战胜RW侠</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>170027</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>张文宏解读新疆疫情</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>165051</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>数码宝贝太好哭了</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>161937</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>于谦喜欢烫头的原因</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>155601</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>热搜</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>热度</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>钟南山称中国暴发第二波疫情可能性很低</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2751045</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>世界50%新冠病例由无症状感染者传染</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1270428</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>江苏卫视一千零一夜晚会</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1120964</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>周震南</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1095706</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>邓伦李沁工作室头像</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>956670</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>江苏医生被武汉七旬康复患者公主抱</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>641603</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>华为Mate40</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>589521</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>美国逮捕相关人员不是中方执法人员</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>406839</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>突然明白怎么织毛衣了</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>406791</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>白敬亭让王嘉尔不穿衣服</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>406736</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>务农时用毛巾缠住脖子的原理</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>406682</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>教育局回应一幼儿园让孩子学敬酒</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>397027</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>物理老师用烧杯演奏小星星</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>367852</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>宋小女说希望张玉环照顾好自己</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>359197</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>6岁女童受虐被告人将被从重从快严惩</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>339401</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>周杰伦投资KTV被告300首歌侵权</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>339179</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>假如顾里林萧去吃重庆小面</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>337439</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>华为Mate40价格</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>336772</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>关晓彤黄景瑜官鸿翻车料理</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>335460</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>韩美娟参加创4面试</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>334050</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>天官赐福灯光秀</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>332542</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>鬼屋有多吓人</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>331948</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>抚顺受虐女童监护人已变更为父亲</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>325342</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>华为发布会</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>324777</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>杨幂港风江景大片</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>323773</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>林允万圣节鬼新娘妆</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>323104</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>华为手机钱包支持数字人民币</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>320693</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>外交部回应蓬佩奥访问亚洲一再抹黑中国</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>318698</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>中国新说唱总决赛</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>318492</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>半泽直树被上司甩锅</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>294907</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>我嗑的cp就像柿子</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>292387</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>大量法国人赶在封城前离开巴黎</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>229864</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>中美彻底脱钩不现实也没好处</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>223801</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>王一博泥泞打戏</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>223462</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>月半爱丽丝</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>222400</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>万圣节妆容</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>212289</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>布达拉宫泼甜墙</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>192303</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>不输配音演员的原声</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>189829</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>陕西发现2600年前祭祀遗址</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>184445</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>意大利议员坚持把口罩戴鼻子上</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>173913</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>9人禁渔期捕捞108公斤跳跳鱼被抓</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>166598</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>TES战胜RW侠</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>162563</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>迪丽热巴 人美歌甜小公主</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>161512</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>边伯贤 我熟人是哪位</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>160733</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>高校运动会开幕式现铠甲方阵</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>160235</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>张文宏解读新疆疫情</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>160159</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>河南郑州一高校开设化妆课</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>158502</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>詹姆斯纪念NBA首秀17周年</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>157782</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>热搜</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>热度</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>钟南山称中国暴发第二波疫情可能性很低</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2639164</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>世界50%新冠病例由无症状感染者传染</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1244775</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>江苏卫视一千零一夜晚会</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1188972</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>周震南</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1132752</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>迪丽热巴 人美歌甜小公主</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>993444</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>华为Mate40</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>914829</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>江苏医生被武汉七旬康复患者公主抱</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>898313</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>美国逮捕相关人员不是中方执法人员</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>887785</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>邓伦李沁工作室头像</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>887430</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>突然明白怎么织毛衣了</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>885090</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>月半爱丽丝</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>789881</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>务农时用毛巾缠住脖子的原理</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>413297</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>6岁女童受虐被告人将被从重从快严惩</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>377439</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>宋小女说希望张玉环照顾好自己</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>365902</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>中国新说唱总决赛</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>360039</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>周杰伦投资KTV被告300首歌侵权</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>354955</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>华为Mate40价格</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>347971</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>华为发布会</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>345331</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>假如顾里林萧去吃重庆小面</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>342628</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>关晓彤黄景瑜官鸿翻车料理</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>340710</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>韩美娟参加创4面试</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>337557</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>天官赐福灯光秀</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>333843</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>抚顺受虐女童监护人已变更为父亲</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>329709</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>白敬亭让王嘉尔不穿衣服</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>326906</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>杨幂港风江景大片</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>324869</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>万圣节妆容</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>322337</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>华为手机钱包支持数字人民币</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>316858</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>外交部回应蓬佩奥访问亚洲一再抹黑中国</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>315092</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>教育局回应一幼儿园让孩子学敬酒</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>312860</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>河南郑州一高校开设化妆课</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>310214</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>林允万圣节鬼新娘妆</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>305289</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>半泽直树被上司甩锅</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>296814</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>中美彻底脱钩不现实也没好处</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>281774</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>鬼屋有多吓人</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>270949</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>物理老师用烧杯演奏小星星</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>266791</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>9人禁渔期捕捞108公斤跳跳鱼被抓</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>236006</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>我嗑的cp就像柿子</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>233099</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>大量法国人赶在封城前离开巴黎</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>194395</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>王一博泥泞打戏</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>193059</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>不输配音演员的原声</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>180594</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>布达拉宫泼甜墙</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>167262</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>为什么让硬糖少女唱兄弟想你了</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>165503</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>英雄联盟音乐节</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>165469</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>中国好声音</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>165469</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>意大利议员坚持把口罩戴鼻子上</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>165468</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>让张韶涵一个人唱吧</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>142954</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>詹姆斯纪念NBA首秀17周年</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>135067</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>马晓晓好惨</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>128127</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>热搜</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>热度</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>钟南山称中国暴发第二波疫情可能性很低</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2608490</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>世界50%新冠病例由无症状感染者传染</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2181709</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>为什么让硬糖少女唱兄弟想你了</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1817577</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>周震南</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1737223</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>让张韶涵一个人唱吧</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1475045</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>华为Mate40</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1201458</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>江苏医生被武汉七旬康复患者公主抱</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1184073</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>美国逮捕相关人员不是中方执法人员</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1181940</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>江苏卫视一千零一夜晚会</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1181534</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>月半爱丽丝</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>884742</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>突然明白怎么织毛衣了</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>727830</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>务农时用毛巾缠住脖子的原理</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>727584</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>6岁女童受虐被告人将被从重从快严惩</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>722977</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>迪丽热巴 人美歌甜小公主</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>717117</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>中国新说唱总决赛</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>711663</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>假如顾里林萧去吃重庆小面</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>711661</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>华为Mate40价格</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>639599</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>教育局回应一幼儿园让孩子学敬酒</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>590285</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>周杰伦投资KTV被告300首歌侵权</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>587336</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>韩美娟参加创4面试</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>583371</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>天官赐福灯光秀</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>427911</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>河南郑州一高校开设化妆课</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>413768</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>抚顺受虐女童监护人已变更为父亲</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>358857</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>华为发布会</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>352055</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>邓伦李沁工作室头像</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>349620</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>万圣节妆容</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>346766</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>华为手机钱包支持数字人民币</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>345535</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>外交部回应蓬佩奥访问亚洲一再抹黑中国</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>342061</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>郑爽时代少年团姐姐真漂亮</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>337568</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>关晓彤黄景瑜官鸿翻车料理</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>335522</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>白敬亭让王嘉尔不穿衣服</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>331762</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>宋小女说希望张玉环照顾好自己</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>329379</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>中美彻底脱钩不现实也没好处</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>316302</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>杨幂港风江景大片</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>316209</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>林允万圣节鬼新娘妆</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>315565</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>鬼屋有多吓人</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>259500</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>半泽直树被上司甩锅</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>235979</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>中国好声音</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>230444</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>马晓晓好惨</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>230230</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>F4是四个人都在现场吗</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>229553</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>德云斗笑社收官</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>229523</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>傅容吃醋</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>229523</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>我嗑的cp就像柿子</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>229522</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>9人禁渔期捕捞108公斤跳跳鱼被抓</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>227377</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>大量法国人赶在封城前离开巴黎</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>189074</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>英雄联盟音乐节</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>187355</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>布达拉宫泼甜墙</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>186734</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>詹姆斯纪念NBA首秀17周年</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>186717</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>热搜</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>热度</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>为什么让硬糖少女唱兄弟想你了</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3513903</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>世界50%新冠病例由无症状感染者传染</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2863433</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>让张韶涵一个人唱吧</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2859209</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>周震南</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1994540</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>钟南山称中国暴发第二波疫情可能性很低</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1832129</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>华为Mate40</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1266904</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>江苏医生被武汉七旬康复患者公主抱</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1196162</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>美国逮捕相关人员不是中方执法人员</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1185172</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>江苏卫视一千零一夜晚会</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1183712</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>月半爱丽丝</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>909574</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>突然明白怎么织毛衣了</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>621506</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>中国新说唱总决赛</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>618948</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>6岁女童受虐被告人将被从重从快严惩</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>615667</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>郑爽时代少年团姐姐真漂亮</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>611216</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>务农时用毛巾缠住脖子的原理</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>605092</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>假如顾里林萧去吃重庆小面</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>601085</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>韩美娟参加创4面试</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>597489</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>华为Mate40价格</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>542392</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>迪丽热巴 人美歌甜小公主</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>541973</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>还剩一天付尾款的我</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>526264</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>天官赐福灯光秀</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>455483</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>抚顺受虐女童监护人已变更为父亲</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>452820</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>华为发布会</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>448389</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>万圣节妆容</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>443189</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>教育局回应一幼儿园让孩子学敬酒</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>439254</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>华为手机钱包支持数字人民币</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>437647</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>外交部回应蓬佩奥访问亚洲一再抹黑中国</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>432475</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>河南郑州一高校开设化妆课</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>430262</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>F4是四个人都在现场吗</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>429691</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>周杰伦投资KTV被告300首歌侵权</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>418829</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>邓伦李沁工作室头像</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>408822</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>关晓彤黄景瑜官鸿翻车料理</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>400142</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>中美彻底脱钩不现实也没好处</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>388575</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>白敬亭让王嘉尔不穿衣服</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>387208</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>杨幂港风江景大片</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>367854</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>宋小女说希望张玉环照顾好自己</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>295459</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>傅容吃醋</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>279656</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>希腊佐泽卡尼索斯群岛6.9级地震</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>272562</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>中国新说唱总冠军李佳隆</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>272321</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>中国好声音</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>272105</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>鬼屋有多吓人</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>244224</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>德云斗笑社收官</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>228962</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>半泽直树被上司甩锅</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>202730</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2天办理4张联通副卡均被停机</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>186149</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>孟鹤堂德云斗笑社冠军</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>184590</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>英雄联盟音乐节</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>184114</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>詹姆斯纪念NBA首秀17周年</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>143989</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>布达拉宫泼甜墙</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>140992</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
